--- a/AndroidAssign/app/src/main/assets/lecture.xlsx
+++ b/AndroidAssign/app/src/main/assets/lecture.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeonWon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljw68\Documents\GitHub\SCH\AndroidAssign\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{167FDC5C-A1DA-4841-B524-26649FD00B9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428A5AF-5498-4031-9D42-837E766DD5A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20180304_개설강좌 강의시간목록_수정" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5649" uniqueCount="2240">
   <si>
     <t>강좌번호</t>
   </si>
@@ -6731,12 +6732,28 @@
   </si>
   <si>
     <t>MOTIONDYNAMICSLAB(영어과목)</t>
+  </si>
+  <si>
+    <t>시발</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>되냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>되라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7687,10 +7704,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -36289,4 +36306,39 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D103A01-0733-4773-B49A-9675ED396B46}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>